--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/CodeSystem-jp-procedure-body-site-cs.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/CodeSystem-jp-procedure-body-site-cs.xlsx
@@ -23,7 +23,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureBodySite_CS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureBodySite_CS</t>
   </si>
   <si>
     <t>Version</t>
@@ -101,7 +101,7 @@
     <t>Value Set (all codes)</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureBodySite_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureBodySite_VS</t>
   </si>
   <si>
     <t>Hierarchy</t>
